--- a/datasets/mestske-casti/kaceni.xlsx
+++ b/datasets/mestske-casti/kaceni.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="data" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
@@ -88,11 +88,12 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -108,6 +109,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -152,8 +160,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -185,7 +197,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -203,7 +215,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -212,7 +224,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -229,66 +241,66 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="2" t="n">
+      <c r="F2" s="2"/>
+      <c r="G2" s="3" t="n">
         <v>42036</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="3" t="n">
         <v>42050</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="2" t="n">
         <v>2028</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2" t="n">
+      <c r="F3" s="2"/>
+      <c r="G3" s="3" t="n">
         <v>42036</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="3" t="n">
         <v>42050</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="1"/>
+      <c r="K3" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
